--- a/Stundenliste.xlsx
+++ b/Stundenliste.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benja\Desktop\3BHIF\SYP\Inventory-Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB754C50-3708-4015-9632-741D55DE9E85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C838D26-9616-4CD1-A06D-FF21E68BF607}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="58">
   <si>
     <t>Stundenliste</t>
   </si>
@@ -201,6 +201,15 @@
   </si>
   <si>
     <t>#4</t>
+  </si>
+  <si>
+    <t>Systemdokumentation geschrieben</t>
+  </si>
+  <si>
+    <t>#41</t>
+  </si>
+  <si>
+    <t>Aufwand</t>
   </si>
 </sst>
 </file>
@@ -291,7 +300,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -299,16 +308,20 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -324,10 +337,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -593,10 +602,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:P23"/>
+  <dimension ref="A2:P24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -609,7 +618,7 @@
     <col min="7" max="7" width="14.85546875" customWidth="1"/>
     <col min="8" max="8" width="49.5703125" customWidth="1"/>
     <col min="9" max="9" width="12.5703125" customWidth="1"/>
-    <col min="14" max="14" width="8.85546875" style="9"/>
+    <col min="14" max="14" width="8.85546875" style="7"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
@@ -618,21 +627,21 @@
       </c>
     </row>
     <row r="6" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="7"/>
+      <c r="B6" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="11"/>
       <c r="D6">
         <f>SUM(B:C)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E6" t="s">
         <v>45</v>
       </c>
-      <c r="G6" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="H6" s="8"/>
+      <c r="G6" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6" s="12"/>
       <c r="I6">
         <f>SUM(G:H)</f>
         <v>24</v>
@@ -640,6 +649,10 @@
       <c r="J6" t="s">
         <v>45</v>
       </c>
+      <c r="M6" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="N6" s="14"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -666,15 +679,15 @@
       <c r="I7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="M7" s="10" t="s">
+      <c r="M7" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="N7" s="11" t="s">
+      <c r="N7" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="O7" s="9">
-        <f>SUM(N8:N21)</f>
-        <v>47</v>
+      <c r="O7" s="7">
+        <f>SUM(M:N)</f>
+        <v>48</v>
       </c>
       <c r="P7" t="s">
         <v>45</v>
@@ -708,7 +721,7 @@
       <c r="M8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="N8" s="12">
+      <c r="N8" s="10">
         <f>B11+G10/2+G11/2</f>
         <v>3</v>
       </c>
@@ -741,7 +754,7 @@
       <c r="M9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="N9" s="12">
+      <c r="N9" s="10">
         <f>B8+B9+B10+B12+B13+G14+G15+B15</f>
         <v>14</v>
       </c>
@@ -774,7 +787,7 @@
       <c r="M10" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="N10" s="12">
+      <c r="N10" s="10">
         <f>B16/2</f>
         <v>1</v>
       </c>
@@ -807,7 +820,7 @@
       <c r="M11" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="N11" s="12">
+      <c r="N11" s="10">
         <f>B16/1+B17/3+B18+B19+B20/2+G20/3</f>
         <v>7.333333333333333</v>
       </c>
@@ -840,7 +853,7 @@
       <c r="M12" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="N12" s="12">
+      <c r="N12" s="10">
         <f>B20/2+G20/3</f>
         <v>1.6666666666666665</v>
       </c>
@@ -871,7 +884,7 @@
       <c r="M13" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="N13" s="12">
+      <c r="N13" s="10">
         <f>G17/3</f>
         <v>0.66666666666666663</v>
       </c>
@@ -902,7 +915,7 @@
       <c r="M14" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="N14" s="12">
+      <c r="N14" s="10">
         <f>B17/3+B21+G17/3</f>
         <v>3.333333333333333</v>
       </c>
@@ -935,7 +948,7 @@
       <c r="M15" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="N15" s="12">
+      <c r="N15" s="10">
         <f>B17/3+G17/3</f>
         <v>1.3333333333333333</v>
       </c>
@@ -968,7 +981,7 @@
       <c r="M16" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="N16" s="12">
+      <c r="N16" s="10">
         <f>B22+B23</f>
         <v>4</v>
       </c>
@@ -1001,7 +1014,7 @@
       <c r="M17" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="N17" s="12">
+      <c r="N17" s="10">
         <f>G8</f>
         <v>1</v>
       </c>
@@ -1034,7 +1047,7 @@
       <c r="M18" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="N18" s="12">
+      <c r="N18" s="10">
         <f>G10/2</f>
         <v>1</v>
       </c>
@@ -1067,7 +1080,7 @@
       <c r="M19" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="N19" s="12">
+      <c r="N19" s="10">
         <f>G11/2+G12</f>
         <v>3</v>
       </c>
@@ -1100,7 +1113,7 @@
       <c r="M20" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="N20" s="12">
+      <c r="N20" s="10">
         <f>G16</f>
         <v>2</v>
       </c>
@@ -1121,7 +1134,7 @@
       <c r="M21" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="N21" s="12">
+      <c r="N21" s="10">
         <f>G18+G17/3</f>
         <v>3.6666666666666665</v>
       </c>
@@ -1139,6 +1152,13 @@
       <c r="D22" s="5" t="s">
         <v>49</v>
       </c>
+      <c r="M22" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="N22" s="10">
+        <f>B24</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
@@ -1154,10 +1174,25 @@
         <v>49</v>
       </c>
     </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>45461</v>
+      </c>
+      <c r="B24" s="13">
+        <v>1</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="G6:H6"/>
+    <mergeCell ref="M6:N6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Stundenliste.xlsx
+++ b/Stundenliste.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benja\Desktop\3BHIF\SYP\Inventory-Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\OneDrive\Desktop\Inventory-Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C838D26-9616-4CD1-A06D-FF21E68BF607}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7375801-C80C-4A3A-9E87-87B164147AA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="66">
   <si>
     <t>Stundenliste</t>
   </si>
@@ -210,6 +210,30 @@
   </si>
   <si>
     <t>Aufwand</t>
+  </si>
+  <si>
+    <t>Github Actions für Tests</t>
+  </si>
+  <si>
+    <t>Multer</t>
+  </si>
+  <si>
+    <t>#36</t>
+  </si>
+  <si>
+    <t>Multer, Design</t>
+  </si>
+  <si>
+    <t>#36, #8</t>
+  </si>
+  <si>
+    <t>Design</t>
+  </si>
+  <si>
+    <t>Actions</t>
+  </si>
+  <si>
+    <t>Issues</t>
   </si>
 </sst>
 </file>
@@ -300,7 +324,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -318,7 +342,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -604,29 +627,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:P24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" customWidth="1"/>
-    <col min="3" max="3" width="49.42578125" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" customWidth="1"/>
-    <col min="8" max="8" width="49.5703125" customWidth="1"/>
-    <col min="9" max="9" width="12.5703125" customWidth="1"/>
-    <col min="14" max="14" width="8.85546875" style="7"/>
+    <col min="2" max="2" width="14.88671875" customWidth="1"/>
+    <col min="3" max="3" width="49.44140625" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" customWidth="1"/>
+    <col min="6" max="6" width="11.44140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.88671875" customWidth="1"/>
+    <col min="8" max="8" width="49.5546875" customWidth="1"/>
+    <col min="9" max="9" width="12.5546875" customWidth="1"/>
+    <col min="14" max="14" width="8.88671875" style="7" customWidth="1"/>
+    <col min="15" max="15" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="11" t="s">
         <v>1</v>
       </c>
@@ -644,17 +668,17 @@
       <c r="H6" s="12"/>
       <c r="I6">
         <f>SUM(G:H)</f>
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="J6" t="s">
         <v>45</v>
       </c>
-      <c r="M6" s="14" t="s">
+      <c r="M6" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="N6" s="14"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N6" s="13"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
@@ -687,13 +711,13 @@
       </c>
       <c r="O7" s="7">
         <f>SUM(M:N)</f>
-        <v>48</v>
+        <v>62.333333333333336</v>
       </c>
       <c r="P7" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>45322</v>
       </c>
@@ -722,11 +746,11 @@
         <v>18</v>
       </c>
       <c r="N8" s="10">
-        <f>B11+G10/2+G11/2</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+        <f>B11+G10/2+G11/2+G9</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>45329</v>
       </c>
@@ -759,7 +783,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>45336</v>
       </c>
@@ -792,7 +816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>45350</v>
       </c>
@@ -821,11 +845,11 @@
         <v>33</v>
       </c>
       <c r="N11" s="10">
-        <f>B16/1+B17/3+B18+B19+B20/2+G20/3</f>
-        <v>7.333333333333333</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+        <f>B16/1+B17/3+B18+B19+B20/2+G20/3+G19</f>
+        <v>8.3333333333333321</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>45364</v>
       </c>
@@ -858,7 +882,7 @@
         <v>1.6666666666666665</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>45371</v>
       </c>
@@ -882,14 +906,14 @@
       </c>
       <c r="I13" s="5"/>
       <c r="M13" s="5" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="N13" s="10">
-        <f>G17/3</f>
-        <v>0.66666666666666663</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+        <f>B17/3+B21+G17/3</f>
+        <v>3.333333333333333</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>45385</v>
       </c>
@@ -913,14 +937,14 @@
         <v>17</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="N14" s="10">
-        <f>B17/3+B21+G17/3</f>
-        <v>3.333333333333333</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+        <f>B17/3+G17/3</f>
+        <v>1.3333333333333333</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>45392</v>
       </c>
@@ -946,14 +970,14 @@
         <v>17</v>
       </c>
       <c r="M15" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="N15" s="10">
-        <f>B17/3+G17/3</f>
-        <v>1.3333333333333333</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+        <f>B22+B23</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>45399</v>
       </c>
@@ -979,14 +1003,14 @@
         <v>29</v>
       </c>
       <c r="M16" s="5" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="N16" s="10">
-        <f>B22+B23</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+        <f>G8</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>45406</v>
       </c>
@@ -1012,14 +1036,14 @@
         <v>40</v>
       </c>
       <c r="M17" s="5" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="N17" s="10">
-        <f>G8</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+        <f>G10/2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>45420</v>
       </c>
@@ -1045,14 +1069,14 @@
         <v>42</v>
       </c>
       <c r="M18" s="5" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="N18" s="10">
-        <f>G10/2</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+        <f>G11/2+G12</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>45427</v>
       </c>
@@ -1078,14 +1102,14 @@
         <v>33</v>
       </c>
       <c r="M19" s="5" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="N19" s="10">
-        <f>G11/2+G12</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+        <f>G16</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>45428</v>
       </c>
@@ -1111,14 +1135,14 @@
         <v>44</v>
       </c>
       <c r="M20" s="5" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="N20" s="10">
-        <f>G16</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+        <f>G18+(G17/3)+(G23/2)+G24</f>
+        <v>6.1666666666666661</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>45448</v>
       </c>
@@ -1131,15 +1155,25 @@
       <c r="D21" s="5" t="s">
         <v>46</v>
       </c>
+      <c r="F21" s="4">
+        <v>45448</v>
+      </c>
+      <c r="G21" s="5">
+        <v>2</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="I21" s="5"/>
       <c r="M21" s="5" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="N21" s="10">
-        <f>G18+G17/3</f>
-        <v>3.6666666666666665</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+        <f>B24</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>45455</v>
       </c>
@@ -1152,15 +1186,27 @@
       <c r="D22" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="M22" s="13" t="s">
-        <v>56</v>
+      <c r="F22" s="4">
+        <v>45455</v>
+      </c>
+      <c r="G22" s="5">
+        <v>3</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="M22" s="5" t="s">
+        <v>60</v>
       </c>
       <c r="N22" s="10">
-        <f>B24</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+        <f>G22+G23/2</f>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>45456</v>
       </c>
@@ -1173,19 +1219,57 @@
       <c r="D23" s="5" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F23" s="4">
+        <v>45456</v>
+      </c>
+      <c r="G23" s="5">
+        <v>3</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="M23" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="N23" s="10">
+        <f>G21+B21/2</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>45461</v>
       </c>
-      <c r="B24" s="13">
-        <v>1</v>
-      </c>
-      <c r="C24" s="13" t="s">
+      <c r="B24" s="5">
+        <v>1</v>
+      </c>
+      <c r="C24" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D24" s="13" t="s">
+      <c r="D24" s="5" t="s">
         <v>56</v>
+      </c>
+      <c r="F24" s="4">
+        <v>45461</v>
+      </c>
+      <c r="G24" s="5">
+        <v>1</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="M24" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="N24" s="10">
+        <f>G13+B14</f>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
